--- a/lei.xlsx
+++ b/lei.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KIKO\Desktop\GIT\PLC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diani\Documents\GitHub\PLC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFD1578D-2656-458A-8048-ED6A37C83544}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8ECD62E-83F7-4164-9A64-39E13BD352EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11385" xr2:uid="{86DEBEAC-4DAD-4AB0-B634-8027E2581144}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{86DEBEAC-4DAD-4AB0-B634-8027E2581144}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -30,22 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="16">
-  <si>
-    <t>RAUL</t>
-  </si>
-  <si>
-    <t>KIKO</t>
-  </si>
-  <si>
-    <t>DIANA</t>
-  </si>
-  <si>
-    <t>PROF</t>
-  </si>
-  <si>
-    <t>RAMALHO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>PRH</t>
   </si>
@@ -53,9 +38,6 @@
     <t>JJ</t>
   </si>
   <si>
-    <t>ESCALA</t>
-  </si>
-  <si>
     <t>LIXO</t>
   </si>
   <si>
@@ -71,20 +53,89 @@
     <t>TOP</t>
   </si>
   <si>
-    <t>BOM*</t>
-  </si>
-  <si>
-    <t>*é melhor não, falta de jeito</t>
-  </si>
-  <si>
-    <t>OKAY*</t>
+    <t>Ramalho</t>
+  </si>
+  <si>
+    <t>PRH + JJ</t>
+  </si>
+  <si>
+    <t>Q&amp;A system</t>
+  </si>
+  <si>
+    <t>DSL p/ chatbots</t>
+  </si>
+  <si>
+    <t>Léxicos Afetivos</t>
+  </si>
+  <si>
+    <t>DSL behaviour trees</t>
+  </si>
+  <si>
+    <t>Site exs de programação</t>
+  </si>
+  <si>
+    <t>Animador espaços aprendizagem</t>
+  </si>
+  <si>
+    <t>Linguagem Teclados Musicais</t>
+  </si>
+  <si>
+    <t>Especificação de Música</t>
+  </si>
+  <si>
+    <t>Entrevistas Museu da Pessoa</t>
+  </si>
+  <si>
+    <t>Catalogação de posts e comentários</t>
+  </si>
+  <si>
+    <t>Digital Humanities Notebook</t>
+  </si>
+  <si>
+    <t>Aprendizagem linguas angolanas</t>
+  </si>
+  <si>
+    <t>CLAV especificação formal</t>
+  </si>
+  <si>
+    <t>CLAV interface</t>
+  </si>
+  <si>
+    <t>CLAV API de Dados</t>
+  </si>
+  <si>
+    <t>Ulisses visualisador de grafos</t>
+  </si>
+  <si>
+    <t>Site para análises químicas</t>
+  </si>
+  <si>
+    <t>média</t>
+  </si>
+  <si>
+    <t>raul</t>
+  </si>
+  <si>
+    <t>kiko</t>
+  </si>
+  <si>
+    <t>diana</t>
+  </si>
+  <si>
+    <t>Projeto</t>
+  </si>
+  <si>
+    <t>Prof</t>
+  </si>
+  <si>
+    <t>escala</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +149,30 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Bookman Old Style"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Bookman Old Style"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Schoolbook"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -150,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -239,43 +314,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -293,6 +331,48 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -300,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -308,70 +388,76 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -688,359 +774,518 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8974DC-C04E-4C37-AA96-B7ABDDBFA1FD}">
-  <dimension ref="C3:L20"/>
+  <dimension ref="B2:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="3" t="s">
+    <row r="2" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="18">
         <v>3</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="18">
+        <v>3</v>
+      </c>
+      <c r="G3" s="19">
+        <v>4</v>
+      </c>
+      <c r="H3" s="20">
+        <f>AVERAGE(E3:G3)</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="12">
+        <v>2</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="18">
+        <v>4</v>
+      </c>
+      <c r="F4" s="18">
+        <v>4</v>
+      </c>
+      <c r="G4" s="19">
+        <v>5</v>
+      </c>
+      <c r="H4" s="21">
+        <f t="shared" ref="H4:H19" si="0">AVERAGE(E4:G4)</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12">
+        <v>3</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="18">
+        <v>4</v>
+      </c>
+      <c r="F5" s="18">
+        <v>2</v>
+      </c>
+      <c r="G5" s="19">
+        <v>3</v>
+      </c>
+      <c r="H5" s="21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
+        <v>4</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="18">
+        <v>4</v>
+      </c>
+      <c r="F6" s="18">
+        <v>5</v>
+      </c>
+      <c r="G6" s="19">
+        <v>1</v>
+      </c>
+      <c r="H6" s="21">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12">
+        <v>5</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="18">
+        <v>2</v>
+      </c>
+      <c r="F7" s="18">
+        <v>2</v>
+      </c>
+      <c r="G7" s="19">
+        <v>1</v>
+      </c>
+      <c r="H7" s="21">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12">
+        <v>6</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="18">
+        <v>2</v>
+      </c>
+      <c r="F8" s="18">
+        <v>2</v>
+      </c>
+      <c r="G8" s="19">
+        <v>1</v>
+      </c>
+      <c r="H8" s="21">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12">
+        <v>7</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="18">
+        <v>4</v>
+      </c>
+      <c r="F9" s="18">
+        <v>3</v>
+      </c>
+      <c r="G9" s="19">
+        <v>1</v>
+      </c>
+      <c r="H9" s="21">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="12">
+        <v>8</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="18">
+        <v>3</v>
+      </c>
+      <c r="F10" s="18">
+        <v>2</v>
+      </c>
+      <c r="G10" s="19">
+        <v>1</v>
+      </c>
+      <c r="H10" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12">
+        <v>9</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="18">
+        <v>4</v>
+      </c>
+      <c r="F11" s="18">
+        <v>4</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
+      <c r="H11" s="21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="C12" s="12">
+        <v>10</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="18">
+        <v>4</v>
+      </c>
+      <c r="F12" s="18">
+        <v>4</v>
+      </c>
+      <c r="G12" s="19">
+        <v>1</v>
+      </c>
+      <c r="H12" s="21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12">
+        <v>11</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="18">
+        <v>2</v>
+      </c>
+      <c r="F13" s="18">
+        <v>2</v>
+      </c>
+      <c r="G13" s="19">
+        <v>4</v>
+      </c>
+      <c r="H13" s="21">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12">
+        <v>12</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="18">
+        <v>2</v>
+      </c>
+      <c r="F14" s="18">
+        <v>2</v>
+      </c>
+      <c r="G14" s="19">
+        <v>5</v>
+      </c>
+      <c r="H14" s="21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="J4" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="J5" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="6">
-        <v>3</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="J6" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="6">
-        <v>4</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="J7" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="6">
-        <v>5</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="J8" s="23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="6">
-        <v>6</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="6">
+      <c r="C15" s="12">
+        <v>13</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="18">
+        <v>1</v>
+      </c>
+      <c r="F15" s="18">
+        <v>1</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1</v>
+      </c>
+      <c r="H15" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="J10" s="24" t="s">
+      <c r="C16" s="12">
         <v>14</v>
       </c>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-    </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="6">
-        <v>8</v>
-      </c>
-      <c r="F11" s="21" t="s">
+      <c r="D16" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="18">
+        <v>1</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1</v>
+      </c>
+      <c r="G16" s="19">
+        <v>1</v>
+      </c>
+      <c r="H16" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+    </row>
+    <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="12">
         <v>15</v>
       </c>
-      <c r="G11" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="J11" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="6">
-        <v>9</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="6">
-        <v>10</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="6">
-        <v>11</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="6">
-        <v>12</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="7">
-        <v>13</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="6">
-        <v>14</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="6">
-        <v>15</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="6">
+      <c r="D17" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="18">
+        <v>1</v>
+      </c>
+      <c r="F17" s="18">
+        <v>2</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1</v>
+      </c>
+      <c r="H17" s="21">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="12">
         <v>16</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="8">
+      <c r="D18" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="18">
+        <v>2</v>
+      </c>
+      <c r="F18" s="18">
+        <v>2</v>
+      </c>
+      <c r="G18" s="19">
+        <v>1</v>
+      </c>
+      <c r="H18" s="21">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="9">
         <v>17</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="1"/>
+      <c r="D19" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="18">
+        <v>2</v>
+      </c>
+      <c r="F19" s="18">
+        <v>1</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="22">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
+  <mergeCells count="3">
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="I16:Q16"/>
+    <mergeCell ref="C2:D2"/>
   </mergeCells>
+  <conditionalFormatting sqref="H3:H19">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
